--- a/befejezett_cimzes.xlsx
+++ b/befejezett_cimzes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\!Háló technikum\!vizsgaremek_sajat\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADFD5B3-2813-4984-B6FD-3C1258845BFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7F00B5-1449-4045-AD4F-ABCEE490B3A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7215" yWindow="4995" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{529DAD9C-076A-4599-B150-D0A99A7074A7}"/>
+    <workbookView xWindow="7200" yWindow="4215" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{529DAD9C-076A-4599-B150-D0A99A7074A7}"/>
   </bookViews>
   <sheets>
     <sheet name="BP" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="373">
   <si>
     <t>vlan 10</t>
   </si>
@@ -565,9 +565,6 @@
     <t>172.16.4.40</t>
   </si>
   <si>
-    <t>172.16.4.44</t>
-  </si>
-  <si>
     <t>172.16.4.48</t>
   </si>
   <si>
@@ -598,9 +595,6 @@
     <t>172.16.4.41</t>
   </si>
   <si>
-    <t>172.16.4.45</t>
-  </si>
-  <si>
     <t>172.16.4.49</t>
   </si>
   <si>
@@ -634,9 +628,6 @@
     <t>172.16.4.38</t>
   </si>
   <si>
-    <t>172.16.4.42</t>
-  </si>
-  <si>
     <t>172.16.4.46</t>
   </si>
   <si>
@@ -671,9 +662,6 @@
   </si>
   <si>
     <t>172.16.4.39</t>
-  </si>
-  <si>
-    <t>172.16.4.43</t>
   </si>
   <si>
     <t>172.16.4.47</t>
@@ -1184,13 +1172,91 @@
     <t>R1-R2</t>
   </si>
   <si>
-    <t>switchek</t>
-  </si>
-  <si>
-    <t>/29</t>
-  </si>
-  <si>
-    <t>sw_kp router fele meno cimei honnan legyenek?</t>
+    <t>switch management bal</t>
+  </si>
+  <si>
+    <t>switch management jobb</t>
+  </si>
+  <si>
+    <t>172.16.7.208</t>
+  </si>
+  <si>
+    <t>172.16.7.209</t>
+  </si>
+  <si>
+    <t>172.16.7.207</t>
+  </si>
+  <si>
+    <t>172.16.7.206</t>
+  </si>
+  <si>
+    <t>172.16.7.232</t>
+  </si>
+  <si>
+    <t>172.16.7.230</t>
+  </si>
+  <si>
+    <t>172.16.7.231</t>
+  </si>
+  <si>
+    <t>172.16.7.233</t>
+  </si>
+  <si>
+    <t>switch + L3 management</t>
+  </si>
+  <si>
+    <t>172.16.4.52</t>
+  </si>
+  <si>
+    <t>172.16.4.56</t>
+  </si>
+  <si>
+    <t>172.16.4.53</t>
+  </si>
+  <si>
+    <t>172.16.4.54</t>
+  </si>
+  <si>
+    <t>172.16.4.55</t>
+  </si>
+  <si>
+    <t>172.16.4.57</t>
+  </si>
+  <si>
+    <t>172.16.4.58</t>
+  </si>
+  <si>
+    <t>172.16.4.59</t>
+  </si>
+  <si>
+    <t>BORDER-JOBBR</t>
+  </si>
+  <si>
+    <t>JOBBR-BALR</t>
+  </si>
+  <si>
+    <t>BORDER-BALR</t>
+  </si>
+  <si>
+    <t>192.168.1.20</t>
+  </si>
+  <si>
+    <t>192.168.1.18</t>
+  </si>
+  <si>
+    <t>192.168.1.19</t>
+  </si>
+  <si>
+    <t>192.168.1.21</t>
+  </si>
+  <si>
+    <t>192.168.1.25</t>
+  </si>
+  <si>
+    <t>192.168.1.26</t>
+  </si>
+  <si>
+    <t>192.168.1.27</t>
   </si>
 </sst>
 </file>
@@ -1304,14 +1370,14 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1626,10 +1692,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C14EFE30-4B60-4031-83BD-0D8DFB7F48D8}">
-  <dimension ref="A1:T62"/>
+  <dimension ref="A1:V62"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1645,8 +1711,7 @@
     <col min="9" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="20.28515625" customWidth="1"/>
     <col min="11" max="11" width="18.7109375" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
-    <col min="13" max="13" width="17.140625" customWidth="1"/>
+    <col min="12" max="13" width="17.140625" customWidth="1"/>
     <col min="14" max="14" width="20" customWidth="1"/>
     <col min="15" max="15" width="16.140625" customWidth="1"/>
     <col min="16" max="16" width="16.7109375" customWidth="1"/>
@@ -1654,33 +1719,35 @@
     <col min="18" max="18" width="16.42578125" customWidth="1"/>
     <col min="19" max="19" width="17.7109375" customWidth="1"/>
     <col min="20" max="20" width="17.5703125" customWidth="1"/>
+    <col min="21" max="21" width="17.140625" customWidth="1"/>
+    <col min="22" max="22" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
-      <c r="T1" s="7"/>
-    </row>
-    <row r="2" spans="1:20" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22" ht="45" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="9" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
+      <c r="T1" s="9"/>
+    </row>
+    <row r="2" spans="1:22" ht="52.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>138</v>
       </c>
@@ -1712,34 +1779,40 @@
         <v>14</v>
       </c>
       <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="M2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="O2" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="R2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="U2" s="1" t="s">
         <v>293</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="V2" s="1" t="s">
         <v>294</v>
       </c>
-      <c r="Q2" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -1771,34 +1844,34 @@
         <v>37</v>
       </c>
       <c r="L3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" t="s">
         <v>36</v>
       </c>
-      <c r="M3" t="s">
-        <v>5</v>
-      </c>
-      <c r="N3" t="s">
-        <v>38</v>
-      </c>
-      <c r="O3" t="s">
+      <c r="Q3" t="s">
         <v>7</v>
       </c>
-      <c r="P3" t="s">
+      <c r="R3" t="s">
         <v>8</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="S3" t="s">
         <v>9</v>
       </c>
-      <c r="R3" t="s">
+      <c r="T3" t="s">
         <v>10</v>
       </c>
-      <c r="S3" t="s">
+      <c r="U3" t="s">
         <v>11</v>
       </c>
-      <c r="T3" t="s">
+      <c r="V3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>34</v>
       </c>
@@ -1836,16 +1909,16 @@
         <v>32</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N4">
         <v>16</v>
       </c>
       <c r="O4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1859,8 +1932,14 @@
       <c r="T4">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U4">
+        <v>4</v>
+      </c>
+      <c r="V4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -1895,19 +1974,16 @@
         <v>23</v>
       </c>
       <c r="L5">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="M5">
-        <v>24</v>
-      </c>
-      <c r="N5">
         <v>7</v>
       </c>
       <c r="O5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P5">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="Q5">
         <v>2</v>
@@ -1921,8 +1997,14 @@
       <c r="T5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U5">
+        <v>2</v>
+      </c>
+      <c r="V5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1963,28 +2045,34 @@
         <v>105</v>
       </c>
       <c r="N6" t="s">
+        <v>346</v>
+      </c>
+      <c r="O6" t="s">
         <v>113</v>
       </c>
-      <c r="O6" t="s">
+      <c r="P6" t="s">
+        <v>350</v>
+      </c>
+      <c r="Q6" t="s">
         <v>115</v>
       </c>
-      <c r="P6" t="s">
+      <c r="R6" t="s">
         <v>116</v>
       </c>
-      <c r="Q6" t="s">
-        <v>216</v>
-      </c>
-      <c r="R6" t="s">
-        <v>217</v>
-      </c>
       <c r="S6" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="T6" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+        <v>213</v>
+      </c>
+      <c r="U6" t="s">
+        <v>222</v>
+      </c>
+      <c r="V6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -2025,28 +2113,34 @@
         <v>106</v>
       </c>
       <c r="N7" t="s">
+        <v>347</v>
+      </c>
+      <c r="O7" t="s">
         <v>114</v>
       </c>
-      <c r="O7" s="6" t="s">
+      <c r="P7" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q7" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="P7" s="6" t="s">
+      <c r="R7" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="Q7" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="R7" s="6" t="s">
+      <c r="S7" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="T7" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="U7" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="S7" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="T7" s="6" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="V7" s="6" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>30</v>
       </c>
@@ -2084,31 +2178,37 @@
         <v>97</v>
       </c>
       <c r="M8" t="s">
+        <v>349</v>
+      </c>
+      <c r="N8" t="s">
         <v>109</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
+        <v>351</v>
+      </c>
+      <c r="P8" t="s">
         <v>117</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="Q8" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="R8" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="Q8" s="6" t="s">
-        <v>219</v>
-      </c>
-      <c r="R8" s="6" t="s">
-        <v>222</v>
-      </c>
       <c r="S8" s="6" t="s">
-        <v>228</v>
+        <v>215</v>
       </c>
       <c r="T8" s="6" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+        <v>218</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>31</v>
       </c>
@@ -2146,31 +2246,37 @@
         <v>98</v>
       </c>
       <c r="M9" t="s">
+        <v>348</v>
+      </c>
+      <c r="N9" t="s">
         <v>110</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
+        <v>352</v>
+      </c>
+      <c r="P9" t="s">
         <v>118</v>
       </c>
-      <c r="O9" t="s">
+      <c r="Q9" t="s">
         <v>121</v>
       </c>
-      <c r="P9" t="s">
+      <c r="R9" t="s">
         <v>124</v>
       </c>
-      <c r="Q9" t="s">
-        <v>220</v>
-      </c>
-      <c r="R9" t="s">
-        <v>223</v>
-      </c>
       <c r="S9" t="s">
-        <v>229</v>
+        <v>216</v>
       </c>
       <c r="T9" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+        <v>219</v>
+      </c>
+      <c r="U9" t="s">
+        <v>225</v>
+      </c>
+      <c r="V9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>32</v>
       </c>
@@ -2208,16 +2314,16 @@
         <v>101</v>
       </c>
       <c r="M10" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="N10" t="s">
         <v>107</v>
       </c>
       <c r="O10" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="P10" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="Q10" t="s">
         <v>111</v>
@@ -2231,8 +2337,14 @@
       <c r="T10" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U10" t="s">
+        <v>111</v>
+      </c>
+      <c r="V10" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>33</v>
       </c>
@@ -2270,16 +2382,16 @@
         <v>102</v>
       </c>
       <c r="M11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="N11" t="s">
         <v>108</v>
       </c>
       <c r="O11" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="P11" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="Q11" t="s">
         <v>112</v>
@@ -2293,772 +2405,778 @@
       <c r="T11" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="U11" t="s">
+        <v>112</v>
+      </c>
+      <c r="V11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H15" s="3"/>
       <c r="I15" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="L15" s="3"/>
       <c r="M15" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="P15" s="3"/>
       <c r="Q15" s="3" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
       <c r="H16" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="M16" s="4"/>
       <c r="N16" s="4"/>
       <c r="P16" s="4" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4"/>
     </row>
     <row r="17" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="I17" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="J17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="L17" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N17" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P17" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="R17" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H18" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I18" s="5" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="J18" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="L18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N18" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P18" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="R18" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I19" s="5" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="J19" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L19" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N19" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P19" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="R19" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="20" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H20" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I20" s="5" t="s">
         <v>119</v>
       </c>
       <c r="J20" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P20" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="R20" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="21" spans="8:18" x14ac:dyDescent="0.25">
       <c r="I21" s="5"/>
       <c r="L21" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P21" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="R21" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="22" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H22" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H23" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I23" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="J23" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="M23" s="4"/>
       <c r="N23" s="4"/>
       <c r="P23" s="4" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="Q23" s="4"/>
       <c r="R23" s="4"/>
     </row>
     <row r="24" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H24" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I24" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="L24" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N24" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P24" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="R24" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="25" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H25" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="J25" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N25" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="P25" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="R25" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H26" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="I26" s="5"/>
       <c r="J26" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="L26" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="N26" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P26" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="R26" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="8:18" x14ac:dyDescent="0.25">
       <c r="L27" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P27" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="R27" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="28" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H28" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="L28" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N28" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P28" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="R28" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H29" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I29" s="5" t="s">
         <v>120</v>
       </c>
       <c r="J29" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L29" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N29" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P29" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="R29" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="30" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H30" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I30" s="5" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="J30" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="31" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H31" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>122</v>
       </c>
       <c r="J31" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="M31" s="4"/>
       <c r="N31" s="4"/>
       <c r="P31" s="4" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="Q31" s="4"/>
       <c r="R31" s="4"/>
     </row>
     <row r="32" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H32" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J32" t="s">
+        <v>231</v>
+      </c>
+      <c r="L32" t="s">
         <v>235</v>
       </c>
-      <c r="L32" t="s">
-        <v>239</v>
-      </c>
       <c r="N32" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P32" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="R32" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="8:18" x14ac:dyDescent="0.25">
       <c r="L33" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N33" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P33" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="R33" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="34" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H34" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="L34" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="N34" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="P34" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="R34" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="35" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H35" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="J35" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="L35" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N35" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P35" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="R35" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H36" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="I36" s="5"/>
       <c r="J36" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L36" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N36" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P36" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="R36" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H37" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="I37" s="5" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="J37" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="P37" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="R37" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="38" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H38" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="I38" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="J38" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
     </row>
     <row r="39" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H39" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="I39" s="5" t="s">
         <v>123</v>
       </c>
       <c r="J39" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="L39" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N39" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="P39" s="4" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="Q39" s="4"/>
       <c r="R39" s="4"/>
     </row>
     <row r="40" spans="8:18" x14ac:dyDescent="0.25">
       <c r="L40" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N40" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="P40" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="R40" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="41" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H41" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="L41" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="N41" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P41" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="R41" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H42" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="J42" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L42" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="N42" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P42" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="R42" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H43" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="J43" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="L43" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="N43" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="P43" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="R43" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="44" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H44" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="J44" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="P44" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="R44" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="45" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H45" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="J45" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="46" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H46" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="J46" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H47" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="J47" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48" spans="8:18" x14ac:dyDescent="0.25">
       <c r="H48" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="J48" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H49" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="J49" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="8:14" x14ac:dyDescent="0.25">
       <c r="L50" s="4" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="M50" s="4"/>
       <c r="N50" s="4"/>
     </row>
     <row r="51" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H51" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="L51" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="N51" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H52" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J52" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L52" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="N52" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H53" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J53" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="L53" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="N53" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H54" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J54" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="L54" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="N54" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H55" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J55" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="L55" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="N55" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="8:14" x14ac:dyDescent="0.25">
       <c r="L56" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="N56" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="57" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H57" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="L57" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="N57" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H58" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="J58" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="L58" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="N58" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="59" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H59" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="J59" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
     </row>
     <row r="60" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H60" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="J60" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H61" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="J61" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
     </row>
     <row r="62" spans="8:14" x14ac:dyDescent="0.25">
       <c r="H62" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="J62" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -3075,8 +3193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E487AD6-C881-43B7-BE6B-81FFCF152263}">
   <dimension ref="A1:S45"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="P27" sqref="P27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3090,30 +3208,31 @@
     <col min="7" max="7" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.140625" customWidth="1"/>
     <col min="9" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
-      <c r="O1" s="7"/>
-      <c r="P1" s="7"/>
-      <c r="Q1" s="7"/>
-      <c r="R1" s="7"/>
-      <c r="S1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="G1" s="9"/>
+      <c r="H1" s="9"/>
+      <c r="I1" s="9"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="9"/>
+      <c r="L1" s="9"/>
+      <c r="M1" s="9"/>
+      <c r="N1" s="9"/>
+      <c r="O1" s="9"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
+      <c r="S1" s="9"/>
     </row>
     <row r="2" spans="1:19" ht="45" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
@@ -3150,6 +3269,9 @@
         <v>6</v>
       </c>
       <c r="M2" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="N2" s="1" t="s">
         <v>22</v>
       </c>
     </row>
@@ -3187,17 +3309,17 @@
       <c r="L3" t="s">
         <v>5</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" t="s">
-        <v>7</v>
-      </c>
       <c r="O3" t="s">
-        <v>8</v>
+        <v>363</v>
       </c>
       <c r="P3" t="s">
-        <v>12</v>
+        <v>364</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>365</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -3241,12 +3363,15 @@
         <v>8</v>
       </c>
       <c r="N4">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="O4">
         <v>4</v>
       </c>
       <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
         <v>4</v>
       </c>
     </row>
@@ -3269,6 +3394,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -3317,7 +3443,10 @@
         <v>150</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>355</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
@@ -3331,43 +3460,46 @@
         <v>58</v>
       </c>
       <c r="D7" t="s">
+        <v>151</v>
+      </c>
+      <c r="E7" t="s">
         <v>152</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>153</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>154</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>155</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>156</v>
       </c>
-      <c r="I7" t="s">
+      <c r="J7" t="s">
         <v>157</v>
-      </c>
-      <c r="J7" t="s">
-        <v>158</v>
       </c>
       <c r="K7" t="s">
         <v>62</v>
       </c>
       <c r="L7" t="s">
+        <v>158</v>
+      </c>
+      <c r="M7" t="s">
+        <v>158</v>
+      </c>
+      <c r="N7" t="s">
         <v>159</v>
       </c>
-      <c r="M7" t="s">
-        <v>159</v>
-      </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>160</v>
       </c>
-      <c r="O7" t="s">
-        <v>161</v>
-      </c>
       <c r="P7" t="s">
-        <v>162</v>
+        <v>357</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -3378,46 +3510,49 @@
         <v>53</v>
       </c>
       <c r="C8" t="s">
+        <v>161</v>
+      </c>
+      <c r="D8" t="s">
+        <v>162</v>
+      </c>
+      <c r="E8" t="s">
         <v>163</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>164</v>
       </c>
-      <c r="E8" t="s">
+      <c r="G8" t="s">
         <v>165</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>166</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>167</v>
-      </c>
-      <c r="H8" t="s">
-        <v>168</v>
-      </c>
-      <c r="I8" t="s">
-        <v>169</v>
       </c>
       <c r="J8" t="s">
         <v>59</v>
       </c>
       <c r="K8" t="s">
+        <v>168</v>
+      </c>
+      <c r="L8" t="s">
+        <v>169</v>
+      </c>
+      <c r="M8" t="s">
         <v>170</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>171</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>172</v>
       </c>
-      <c r="N8" t="s">
-        <v>173</v>
-      </c>
-      <c r="O8" t="s">
-        <v>174</v>
-      </c>
       <c r="P8" t="s">
-        <v>175</v>
+        <v>358</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -3428,46 +3563,49 @@
         <v>54</v>
       </c>
       <c r="C9" t="s">
+        <v>173</v>
+      </c>
+      <c r="D9" t="s">
+        <v>174</v>
+      </c>
+      <c r="E9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F9" t="s">
         <v>176</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G9" t="s">
         <v>177</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H9" t="s">
         <v>178</v>
       </c>
-      <c r="F9" t="s">
+      <c r="I9" t="s">
         <v>179</v>
-      </c>
-      <c r="G9" t="s">
-        <v>180</v>
-      </c>
-      <c r="H9" t="s">
-        <v>181</v>
-      </c>
-      <c r="I9" t="s">
-        <v>182</v>
       </c>
       <c r="J9" t="s">
         <v>60</v>
       </c>
       <c r="K9" t="s">
+        <v>180</v>
+      </c>
+      <c r="L9" t="s">
+        <v>181</v>
+      </c>
+      <c r="M9" t="s">
+        <v>182</v>
+      </c>
+      <c r="N9" t="s">
         <v>183</v>
       </c>
-      <c r="L9" t="s">
+      <c r="O9" t="s">
         <v>184</v>
       </c>
-      <c r="M9" t="s">
-        <v>185</v>
-      </c>
-      <c r="N9" t="s">
-        <v>186</v>
-      </c>
-      <c r="O9" t="s">
-        <v>187</v>
-      </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>359</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -3508,15 +3646,18 @@
         <v>107</v>
       </c>
       <c r="M10" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="N10" t="s">
-        <v>111</v>
+        <v>185</v>
       </c>
       <c r="O10" t="s">
         <v>111</v>
       </c>
       <c r="P10" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q10" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3558,10 +3699,10 @@
         <v>108</v>
       </c>
       <c r="M11" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>186</v>
       </c>
       <c r="O11" t="s">
         <v>112</v>
@@ -3569,359 +3710,363 @@
       <c r="P11" t="s">
         <v>112</v>
       </c>
+      <c r="Q11" t="s">
+        <v>112</v>
+      </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>207</v>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H17" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B18" s="4" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="F18" s="4" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F19" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H19" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D20" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F20" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H20" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D21" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F21" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H21" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D22" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F22" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H22" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F23" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H23" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B24" s="4" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="F24" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H24" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F25" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H25" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D26" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D27" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F28" s="4" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B29" s="4" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
       <c r="F29" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H29" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D30" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F30" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H30" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D31" t="s">
+        <v>306</v>
+      </c>
+      <c r="F31" t="s">
+        <v>237</v>
+      </c>
+      <c r="H31" t="s">
         <v>310</v>
-      </c>
-      <c r="F31" t="s">
-        <v>241</v>
-      </c>
-      <c r="H31" t="s">
-        <v>314</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D32" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="F32" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="H32" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F33" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="H33" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B34" s="4" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="F34" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="H34" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D35" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F35" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H35" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D36" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D37" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D38" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="D39" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F39" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="H39" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D40" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="F40" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="H40" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D41" t="s">
+        <v>307</v>
+      </c>
+      <c r="F41" t="s">
+        <v>237</v>
+      </c>
+      <c r="H41" t="s">
         <v>311</v>
-      </c>
-      <c r="F41" t="s">
-        <v>241</v>
-      </c>
-      <c r="H41" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F42" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="H42" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F43" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="H43" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F44" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="H44" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
       <c r="F45" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="H45" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:S1"/>
   </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C704D885-2F82-4CEB-806E-EF5C22FDC77E}">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3935,44 +4080,41 @@
     <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:6" ht="33.75" x14ac:dyDescent="0.5">
+      <c r="A1" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="8" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="8"/>
+      <c r="C2" s="10"/>
       <c r="D2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E2" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F2" t="s">
-        <v>346</v>
-      </c>
-      <c r="G2" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="8">
+      <c r="B3" s="10">
         <v>16</v>
       </c>
-      <c r="C3" s="8"/>
+      <c r="C3" s="10"/>
       <c r="D3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E3">
         <v>4</v>
@@ -3980,18 +4122,15 @@
       <c r="F3">
         <v>4</v>
       </c>
-      <c r="G3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>13</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
       <c r="D4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -3999,71 +4138,89 @@
       <c r="F4">
         <v>2</v>
       </c>
-      <c r="G4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>28</v>
       </c>
-      <c r="B5" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C5" s="8"/>
+      <c r="B5" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="C5" s="10"/>
       <c r="D5" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+      <c r="F5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C6" s="8"/>
+      <c r="B6" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="C6" s="10"/>
       <c r="D6" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+      <c r="E6" t="s">
+        <v>369</v>
+      </c>
+      <c r="F6" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>196</v>
-      </c>
-      <c r="C7" s="8"/>
+      <c r="B7" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="10"/>
       <c r="D7" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="E7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="8" t="s">
-        <v>198</v>
-      </c>
-      <c r="C8" s="8"/>
+      <c r="B8" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C8" s="10"/>
       <c r="D8" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>368</v>
+      </c>
+      <c r="E8" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="C9" s="8"/>
+      <c r="C9" s="10"/>
       <c r="D9" t="s">
-        <v>189</v>
+        <v>111</v>
       </c>
       <c r="E9" t="s">
         <v>111</v>
@@ -4071,254 +4228,243 @@
       <c r="F9" t="s">
         <v>111</v>
       </c>
-      <c r="G9" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C10" s="8"/>
+      <c r="B10" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="C10" s="10"/>
       <c r="D10" t="s">
-        <v>349</v>
+        <v>197</v>
       </c>
       <c r="E10" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F10" t="s">
-        <v>201</v>
-      </c>
-      <c r="G10" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="F13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B16" s="4" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C17" t="s">
         <v>126</v>
       </c>
       <c r="D17" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D18" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D19" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D22" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D23" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D24" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="4" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D27" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D28" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D29" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="4" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="D32" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D33" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D34" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D35" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B37" s="4" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="C37" s="4"/>
       <c r="D37" s="4"/>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D38" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D39" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D40" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B42" s="4" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="C42" s="4"/>
       <c r="D42" s="4"/>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="D43" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D44" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="D45" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4330,7 +4476,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4343,13 +4489,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
     </row>
     <row r="2" spans="1:5" ht="18" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
@@ -4362,7 +4508,7 @@
         <v>44</v>
       </c>
       <c r="E2" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -4437,16 +4583,16 @@
       <c r="A7" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="8" t="s">
         <v>134</v>
       </c>
     </row>
@@ -4454,13 +4600,13 @@
       <c r="A8" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="C8" s="8" t="s">
         <v>129</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>132</v>
       </c>
       <c r="E8" t="s">
@@ -4519,63 +4665,63 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>207</v>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C16" t="s">
         <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="C17" t="s">
         <v>128</v>
       </c>
       <c r="D17" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="C18" t="s">
         <v>131</v>
       </c>
       <c r="D18" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C19" t="s">
         <v>134</v>
       </c>
       <c r="D19" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
